--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\COBie-extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07C444-CB14-4888-B7B2-CB2D96E6E0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B416DB9-54E9-4C1A-94F2-E74006642853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="804">
   <si>
     <t>Title</t>
   </si>
@@ -2514,6 +2514,9 @@
   </si>
   <si>
     <t>Units_for_quantity_orquantities_being_observed</t>
+  </si>
+  <si>
+    <t>Device 6</t>
   </si>
 </sst>
 </file>
@@ -14687,10 +14690,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14862,12 +14865,30 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="116"/>
-      <c r="H7" s="125"/>
+      <c r="A7" s="109" t="s">
+        <v>803</v>
+      </c>
+      <c r="B7" s="110">
+        <v>6</v>
+      </c>
+      <c r="C7" s="111">
+        <v>1</v>
+      </c>
+      <c r="D7" s="126">
+        <v>2</v>
+      </c>
+      <c r="E7" s="126">
+        <v>1</v>
+      </c>
+      <c r="F7" s="112" t="s">
+        <v>790</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>786</v>
+      </c>
+      <c r="H7" s="125" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="114"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C493747-6A78-4862-AA3F-2232A0041EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1902B-4720-4D48-8D88-89BB4B52D830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Device 1</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Device 4</t>
-  </si>
-  <si>
-    <t>Device 5</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature </t>
@@ -133,9 +130,6 @@
     <t>0x2a</t>
   </si>
   <si>
-    <t>0x3u</t>
-  </si>
-  <si>
     <t>DeviceType</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
   </si>
   <si>
     <t>Units_for_quantity_orquantities_being_observed</t>
-  </si>
-  <si>
-    <t>Device 6</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1188,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1216,28 +1207,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="I1" s="18"/>
     </row>
@@ -1258,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1284,13 +1275,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1310,13 +1301,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,66 +1327,34 @@
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>8</v>
-      </c>
-      <c r="D6" s="20">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\Rahul\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B1902B-4720-4D48-8D88-89BB4B52D830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B09ED-76FC-4BED-BBB2-878A6E743578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Device 1</t>
   </si>
@@ -148,10 +148,16 @@
     <t>Id_of_element_being_observed</t>
   </si>
   <si>
-    <t>Type_of_Quantity_Observed</t>
+    <t>Units_for_quantity_orquantities_being_observed</t>
   </si>
   <si>
-    <t>Units_for_quantity_orquantities_being_observed</t>
+    <t>Device 6</t>
+  </si>
+  <si>
+    <t>Type_of_quantity_observed</t>
+  </si>
+  <si>
+    <t>Device 5</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1197,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:H6"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1225,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="I1" s="18"/>
     </row>
@@ -1324,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>11</v>
@@ -1337,24 +1343,56 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2</v>
+      </c>
+      <c r="E6" s="20">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\Rahul\itwinConnectorsample\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B09ED-76FC-4BED-BBB2-878A6E743578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D2E556-D8A8-42BC-BB4F-21230F412902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,15 +92,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Device 1</t>
   </si>
   <si>
     <t>Device 2</t>
-  </si>
-  <si>
-    <t>Device 3</t>
   </si>
   <si>
     <t>Device 4</t>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>0x1b</t>
-  </si>
-  <si>
-    <t>0x1c</t>
   </si>
   <si>
     <t>0x2a</t>
@@ -158,6 +152,9 @@
   </si>
   <si>
     <t>Device 5</t>
+  </si>
+  <si>
+    <t>Device 7</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1194,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1213,28 +1210,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="18"/>
     </row>
@@ -1255,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1281,13 +1278,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1295,30 +1292,30 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20">
+        <v>2</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="H4" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="20">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -1330,21 +1327,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>4</v>
@@ -1356,21 +1353,21 @@
         <v>2</v>
       </c>
       <c r="E6" s="20">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4">
         <v>4</v>
@@ -1382,16 +1379,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="20">
+        <v>7</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="19" t="s">
         <v>5</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\Rahul\itwinConnectorsample\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492B09ED-76FC-4BED-BBB2-878A6E743578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE2486-5BDB-4E9E-9D30-9F25E1F7BB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -744,10 +744,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1194,29 +1190,29 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="23.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="38" style="7" customWidth="1"/>
-    <col min="7" max="7" width="47" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="6" customWidth="1"/>
+    <col min="3" max="5" width="23.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38" style="6" customWidth="1"/>
+    <col min="7" max="7" width="47" style="6" customWidth="1"/>
     <col min="8" max="8" width="48.44140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
@@ -1233,887 +1229,887 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="19">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="19">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D2E556-D8A8-42BC-BB4F-21230F412902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520C3E4-9F83-4AD2-87CD-43CAD3DBA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,15 +92,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Device 1</t>
   </si>
   <si>
     <t>Device 2</t>
-  </si>
-  <si>
-    <t>Device 4</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature </t>
@@ -127,9 +124,6 @@
     <t>DeviceType</t>
   </si>
   <si>
-    <t>DeviceId</t>
-  </si>
-  <si>
     <t>LocationX</t>
   </si>
   <si>
@@ -145,16 +139,19 @@
     <t>Units_for_quantity_orquantities_being_observed</t>
   </si>
   <si>
-    <t>Device 6</t>
-  </si>
-  <si>
     <t>Type_of_quantity_observed</t>
   </si>
   <si>
-    <t>Device 5</t>
+    <t>Deviceid</t>
   </si>
   <si>
-    <t>Device 7</t>
+    <t>Device 7-m</t>
+  </si>
+  <si>
+    <t>Device 5-renamed8</t>
+  </si>
+  <si>
+    <t>Device 8-m</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -741,10 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -1191,926 +1184,905 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="7" customWidth="1"/>
-    <col min="3" max="5" width="23.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="38" style="7" customWidth="1"/>
-    <col min="7" max="7" width="47" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="6" customWidth="1"/>
+    <col min="3" max="5" width="23.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38" style="6" customWidth="1"/>
+    <col min="7" max="7" width="47" style="6" customWidth="1"/>
     <col min="8" max="8" width="48.44140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19">
         <v>2</v>
       </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="H8" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20">
-        <v>2</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="E9" s="19">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2</v>
-      </c>
-      <c r="E4" s="20">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2</v>
-      </c>
-      <c r="E5" s="20">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2</v>
-      </c>
-      <c r="E6" s="20">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="17"/>
-    </row>
-    <row r="85" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="17"/>
-    </row>
-    <row r="86" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="17"/>
-    </row>
-    <row r="87" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="15"/>
-    </row>
-    <row r="88" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="15"/>
-    </row>
-    <row r="89" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="15"/>
-    </row>
-    <row r="90" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="15"/>
-    </row>
-    <row r="91" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="15"/>
-    </row>
-    <row r="92" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="15"/>
-    </row>
-    <row r="94" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" s="14" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="15"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="15"/>
+    </row>
+    <row r="61" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="15"/>
+    </row>
+    <row r="62" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="16"/>
+    </row>
+    <row r="86" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="16"/>
+    </row>
+    <row r="87" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F520C3E4-9F83-4AD2-87CD-43CAD3DBA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A37F7-2EF2-480B-AC3E-3427181C5E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Device" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$G$4965</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$G$4961</definedName>
     <definedName name="ApprovalBy">#REF!</definedName>
     <definedName name="AreaUnit">#REF!</definedName>
     <definedName name="Assembly.Name">#REF!</definedName>
@@ -145,13 +145,13 @@
     <t>Deviceid</t>
   </si>
   <si>
-    <t>Device 7-m</t>
+    <t>Device 5</t>
   </si>
   <si>
-    <t>Device 5-renamed8</t>
+    <t>Device 3</t>
   </si>
   <si>
-    <t>Device 8-m</t>
+    <t>Device 4</t>
   </si>
 </sst>
 </file>
@@ -1181,13 +1181,13 @@
   <sheetPr codeName="Sheet16">
     <tabColor indexed="42"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1281,31 +1281,63 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="19">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -1314,69 +1346,41 @@
         <v>2</v>
       </c>
       <c r="E6" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="18"/>
+    </row>
     <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4">
-        <v>10</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
@@ -1588,33 +1592,41 @@
       <c r="E39" s="20"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+    <row r="40" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
       <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="10"/>
@@ -1689,58 +1701,58 @@
       <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="10"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="10"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="11"/>
       <c r="C56" s="8"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="14"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="11"/>
       <c r="C57" s="8"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="14"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14"/>
@@ -1761,22 +1773,22 @@
       <c r="G59" s="14"/>
     </row>
     <row r="60" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="11"/>
       <c r="C60" s="8"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="15"/>
+      <c r="G60" s="14"/>
     </row>
     <row r="61" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="11"/>
       <c r="C61" s="8"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="15"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
@@ -1807,7 +1819,7 @@
     </row>
     <row r="65" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
-      <c r="B65" s="11"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="8"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
@@ -1816,7 +1828,7 @@
     </row>
     <row r="66" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
-      <c r="B66" s="11"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="8"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="67" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14"/>
-      <c r="B67" s="11"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="8"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
@@ -1834,7 +1846,7 @@
     </row>
     <row r="68" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
-      <c r="B68" s="11"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="8"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
@@ -1941,31 +1953,31 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="10"/>
       <c r="C80" s="8"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="14"/>
+      <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="10"/>
       <c r="C81" s="8"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="14"/>
+      <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="10"/>
       <c r="C82" s="8"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="14"/>
+      <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14"/>
@@ -1977,31 +1989,31 @@
       <c r="G83" s="14"/>
     </row>
     <row r="84" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="10"/>
       <c r="C84" s="8"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="10"/>
       <c r="C85" s="8"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="14"/>
     </row>
     <row r="86" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="10"/>
       <c r="C86" s="8"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="14"/>
     </row>
     <row r="87" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
@@ -2048,44 +2060,8 @@
       <c r="F91" s="9"/>
       <c r="G91" s="14"/>
     </row>
-    <row r="92" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="14"/>
-    </row>
-    <row r="93" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="14"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="14"/>
-    </row>
-    <row r="94" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="14"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="14"/>
-    </row>
-    <row r="95" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="14"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
+  <autoFilter ref="A1:G91" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1A37F7-2EF2-480B-AC3E-3427181C5E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614FE95-4E52-4557-ACA7-C6EB7E9C7EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Device" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$G$4961</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$C$4961</definedName>
     <definedName name="ApprovalBy">#REF!</definedName>
     <definedName name="AreaUnit">#REF!</definedName>
     <definedName name="Assembly.Name">#REF!</definedName>
@@ -92,48 +92,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Device 1</t>
-  </si>
-  <si>
-    <t>Device 2</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
     <t>Celsius</t>
   </si>
   <si>
-    <t xml:space="preserve">mm </t>
-  </si>
-  <si>
-    <t>0x1a</t>
-  </si>
-  <si>
-    <t>0x1b</t>
-  </si>
-  <si>
-    <t>0x2a</t>
-  </si>
-  <si>
     <t>DeviceType</t>
-  </si>
-  <si>
-    <t>LocationX</t>
-  </si>
-  <si>
-    <t>LocationY</t>
-  </si>
-  <si>
-    <t>LocationZ</t>
-  </si>
-  <si>
-    <t>Id_of_element_being_observed</t>
   </si>
   <si>
     <t>Units_for_quantity_orquantities_being_observed</t>
@@ -143,15 +113,6 @@
   </si>
   <si>
     <t>Deviceid</t>
-  </si>
-  <si>
-    <t>Device 5</t>
-  </si>
-  <si>
-    <t>Device 3</t>
-  </si>
-  <si>
-    <t>Device 4</t>
   </si>
 </sst>
 </file>
@@ -730,7 +691,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -739,25 +700,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -774,10 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1181,887 +1129,441 @@
   <sheetPr codeName="Sheet16">
     <tabColor indexed="42"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="6" customWidth="1"/>
-    <col min="3" max="5" width="23.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="38" style="6" customWidth="1"/>
-    <col min="7" max="7" width="47" style="6" customWidth="1"/>
-    <col min="8" max="8" width="48.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="47" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.44140625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="19">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="19">
-        <v>2</v>
-      </c>
-      <c r="E5" s="19">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="14"/>
-    </row>
-    <row r="54" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="14"/>
-    </row>
-    <row r="55" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="14"/>
-    </row>
-    <row r="56" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="14"/>
-    </row>
-    <row r="60" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="14"/>
-    </row>
-    <row r="62" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="14"/>
-    </row>
-    <row r="63" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="14"/>
-    </row>
-    <row r="64" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="14"/>
-    </row>
-    <row r="65" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="14"/>
-    </row>
-    <row r="66" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="14"/>
-    </row>
-    <row r="67" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="14"/>
-    </row>
-    <row r="68" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="14"/>
-    </row>
-    <row r="71" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="14"/>
-    </row>
-    <row r="72" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="14"/>
-    </row>
-    <row r="73" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="14"/>
-    </row>
-    <row r="74" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="14"/>
-    </row>
-    <row r="75" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="14"/>
-    </row>
-    <row r="77" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="14"/>
-    </row>
-    <row r="78" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="14"/>
-    </row>
-    <row r="79" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="16"/>
-    </row>
-    <row r="82" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="14"/>
-    </row>
-    <row r="84" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="14"/>
-    </row>
-    <row r="85" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="14"/>
-    </row>
-    <row r="86" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="14"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="14"/>
-    </row>
-    <row r="87" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="14"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="14"/>
-    </row>
-    <row r="88" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="14"/>
-    </row>
-    <row r="89" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="14"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="14"/>
-    </row>
-    <row r="90" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="1:7" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="14"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="2:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="9"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="9"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="9"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="9"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="9"/>
+    </row>
+    <row r="74" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="9"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="9"/>
+    </row>
+    <row r="76" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="9"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="9"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="9"/>
+    </row>
+    <row r="79" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="9"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="9"/>
+    </row>
+    <row r="80" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="11"/>
+    </row>
+    <row r="81" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="11"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="11"/>
+    </row>
+    <row r="82" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="11"/>
+    </row>
+    <row r="83" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="9"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="9"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="9"/>
+    </row>
+    <row r="86" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="9"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="9"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="9"/>
+    </row>
+    <row r="89" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="9"/>
+    </row>
+    <row r="90" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="9"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" s="8" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G91" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
+  <autoFilter ref="A1:C91" xr:uid="{00000000-0009-0000-0000-00000F000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614FE95-4E52-4557-ACA7-C6EB7E9C7EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3A30E7-7439-4281-8F5B-3C970703E934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Device 1</t>
   </si>
@@ -103,16 +103,19 @@
     <t>Celsius</t>
   </si>
   <si>
-    <t>DeviceType</t>
+    <t>units_for_quantities_being_observed</t>
   </si>
   <si>
-    <t>Units_for_quantity_orquantities_being_observed</t>
+    <t>type_of_quantity_observed</t>
   </si>
   <si>
-    <t>Type_of_quantity_observed</t>
+    <t>devicetype</t>
   </si>
   <si>
-    <t>Deviceid</t>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>Device 2</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1138,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD6"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1152,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="12"/>
     </row>
@@ -1177,10 +1180,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3A30E7-7439-4281-8F5B-3C970703E934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93D08E-9324-4FDE-820B-0543D8B07F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="16" r:id="rId1"/>
+    <sheet name="TemperatureDatapoint" sheetId="17" r:id="rId2"/>
+    <sheet name="PressureDatapoint" sheetId="18" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$C$4961</definedName>
@@ -92,30 +94,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Device 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+  <si>
+    <t>Celsius</t>
+  </si>
+  <si>
+    <t>units_for_quantities_being_observed</t>
+  </si>
+  <si>
+    <t>type_of_quantity_observed</t>
+  </si>
+  <si>
+    <t>devicetype</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>Device 11</t>
+  </si>
+  <si>
+    <t>Temperature 123</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>T-2</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>P-2</t>
+  </si>
+  <si>
+    <t>unit 1 for P-1</t>
+  </si>
+  <si>
+    <t>unit 2 for P-2</t>
+  </si>
+  <si>
+    <t>unit 1 for T-1</t>
+  </si>
+  <si>
+    <t>unit 2 for T-2</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature </t>
   </si>
   <si>
-    <t>Celsius</t>
-  </si>
-  <si>
-    <t>units_for_quantities_being_observed</t>
-  </si>
-  <si>
-    <t>type_of_quantity_observed</t>
-  </si>
-  <si>
-    <t>devicetype</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>Device 2</t>
+    <t>Device 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure </t>
+  </si>
+  <si>
+    <t>mm hg</t>
+  </si>
+  <si>
+    <t>Device 5</t>
+  </si>
+  <si>
+    <t>Device 6</t>
+  </si>
+  <si>
+    <t>Device 7</t>
   </si>
 </sst>
 </file>
@@ -1134,11 +1184,11 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1152,16 +1202,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="12"/>
     </row>
@@ -1170,46 +1220,70 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1578,4 +1652,128 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DE4B46-B99D-4DA6-A19C-4FF67C7C96BE}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150DC4B-4AA6-4F20-9B7E-B84A6D08CA45}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93D08E-9324-4FDE-820B-0543D8B07F10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76669055-2BED-4480-A91A-8A550833A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="16" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>Device 6</t>
   </si>
   <si>
-    <t>Device 7</t>
+    <t>Device 8</t>
   </si>
 </sst>
 </file>
@@ -1184,11 +1184,11 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1273,16 +1273,16 @@
     </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4150DC4B-4AA6-4F20-9B7E-B84A6D08CA45}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1759,7 +1759,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76669055-2BED-4480-A91A-8A550833A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DFA44-C8A1-4857-8F6F-1D60E1912EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="16" r:id="rId1"/>
     <sheet name="TemperatureDatapoint" sheetId="17" r:id="rId2"/>
     <sheet name="PressureDatapoint" sheetId="18" r:id="rId3"/>
+    <sheet name="DatapointObservesSpatialElement" sheetId="19" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$C$4961</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Celsius</t>
   </si>
@@ -1184,7 +1185,7 @@
   </sheetPr>
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1659,7 +1660,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1776,4 +1777,44 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C5DD8-1F90-4BAE-89FD-673E563BBAE9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DFA44-C8A1-4857-8F6F-1D60E1912EA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C8001-B3C1-4565-93B1-FF8169E20C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="16" r:id="rId1"/>
     <sheet name="TemperatureDatapoint" sheetId="17" r:id="rId2"/>
     <sheet name="PressureDatapoint" sheetId="18" r:id="rId3"/>
     <sheet name="DatapointObservesSpatialElement" sheetId="19" r:id="rId4"/>
+    <sheet name="DevicePhysical" sheetId="20" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$C$4961</definedName>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Celsius</t>
   </si>
@@ -167,6 +168,18 @@
   </si>
   <si>
     <t>Device 8</t>
+  </si>
+  <si>
+    <t>devicephysicalid</t>
+  </si>
+  <si>
+    <t>devicephysicalname</t>
+  </si>
+  <si>
+    <t>deviceA</t>
+  </si>
+  <si>
+    <t>deviceB</t>
   </si>
 </sst>
 </file>
@@ -176,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -346,6 +359,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -745,7 +763,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -779,6 +797,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1657,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DE4B46-B99D-4DA6-A19C-4FF67C7C96BE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1701,28 +1722,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1733,7 +1732,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,18 +1782,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C5DD8-1F90-4BAE-89FD-673E563BBAE9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1807,14 +1809,58 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C06B0-F82D-443A-BF49-D09253852CAF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,19 +5,18 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C8001-B3C1-4565-93B1-FF8169E20C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF184B8B-6AC3-4021-88A1-E996C7D0A652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="16" r:id="rId1"/>
     <sheet name="TemperatureDatapoint" sheetId="17" r:id="rId2"/>
     <sheet name="PressureDatapoint" sheetId="18" r:id="rId3"/>
     <sheet name="DatapointObservesSpatialElement" sheetId="19" r:id="rId4"/>
-    <sheet name="DevicePhysical" sheetId="20" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Device!$A$1:$C$4961</definedName>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Celsius</t>
   </si>
@@ -171,15 +170,6 @@
   </si>
   <si>
     <t>devicephysicalid</t>
-  </si>
-  <si>
-    <t>devicephysicalname</t>
-  </si>
-  <si>
-    <t>deviceA</t>
-  </si>
-  <si>
-    <t>deviceB</t>
   </si>
 </sst>
 </file>
@@ -189,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -359,11 +349,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -763,7 +748,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -797,9 +782,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1782,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C5DD8-1F90-4BAE-89FD-673E563BBAE9}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1819,48 +1801,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7C06B0-F82D-443A-BF49-D09253852CAF}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Extractor/extractor/input/samplesheet.xlsx
+++ b/Extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\iot\source-code\itwinConnectorsample\Extractor\extractor\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\Extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF184B8B-6AC3-4021-88A1-E996C7D0A652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB621C73-41E6-43BE-AAD8-E3A47D19F101}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Celsius</t>
   </si>
@@ -1762,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{265C5DD8-1F90-4BAE-89FD-673E563BBAE9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,14 +1789,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
